--- a/self_report.xlsx
+++ b/self_report.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9A9C98-49D7-4401-9ECB-CE274426CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{9E9A9C98-49D7-4401-9ECB-CE274426CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{951DD2AE-63F3-4DB2-9ED0-B981294CE8B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>label_low</t>
   </si>
@@ -61,49 +61,34 @@
     <t>väga kaasahaarav</t>
   </si>
   <si>
-    <t>väga tugevalt</t>
-  </si>
-  <si>
     <t>Kui väsitav see katse sinu jaoks oli?</t>
   </si>
   <si>
     <t>Kui kaasahaarav see katse sinu jaoks oli?</t>
   </si>
   <si>
-    <t>deception</t>
-  </si>
-  <si>
     <t>motivation</t>
   </si>
   <si>
-    <t>algusest peale</t>
-  </si>
-  <si>
-    <t>nüüd, kui sellest lugesin</t>
-  </si>
-  <si>
-    <t>Kui oluline oli Sinu jaoks hästi soorutada selles katses?</t>
-  </si>
-  <si>
-    <t>Kas said aru, et katses antav tagasiside ei vasta tegelikkusele?</t>
-  </si>
-  <si>
-    <t>Millal said aru?</t>
-  </si>
-  <si>
-    <t>Positiivse</t>
-  </si>
-  <si>
-    <t>Negatiivse</t>
-  </si>
-  <si>
-    <t>Millise tunde viimase tulemus Sinus tekitas?</t>
-  </si>
-  <si>
-    <t>Ei saanud</t>
-  </si>
-  <si>
-    <t>Sain aru</t>
+    <t>odd</t>
+  </si>
+  <si>
+    <t>Millise tunde viimase ploki tulemus sinus tekitas?</t>
+  </si>
+  <si>
+    <t>Kui oluline oli sinu jaoks saada selles katses häid tulemusi?</t>
+  </si>
+  <si>
+    <t>negatiivse</t>
+  </si>
+  <si>
+    <t>positiivse</t>
+  </si>
+  <si>
+    <t>väga oluline</t>
+  </si>
+  <si>
+    <t>Kui miski tundus sulle selle katse juures imelik, pane see siia kirja</t>
   </si>
 </sst>
 </file>
@@ -421,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,13 +445,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -474,16 +459,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -491,16 +476,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -508,16 +493,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -528,30 +513,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/self_report.xlsx
+++ b/self_report.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{9E9A9C98-49D7-4401-9ECB-CE274426CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{951DD2AE-63F3-4DB2-9ED0-B981294CE8B0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C846567D-6288-46A3-88B8-5A959F8D15D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,13 +409,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>

--- a/self_report.xlsx
+++ b/self_report.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C846567D-6288-46A3-88B8-5A959F8D15D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{C846567D-6288-46A3-88B8-5A959F8D15D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06935384-8478-4A4C-BA6C-1B9BED3EC3E4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>label_low</t>
   </si>
@@ -46,18 +49,12 @@
     <t>qst_id</t>
   </si>
   <si>
-    <t>state_fatigue</t>
-  </si>
-  <si>
     <t>üldse mitte</t>
   </si>
   <si>
     <t>väga väsitav</t>
   </si>
   <si>
-    <t>state_flow</t>
-  </si>
-  <si>
     <t>väga kaasahaarav</t>
   </si>
   <si>
@@ -89,6 +86,30 @@
   </si>
   <si>
     <t>Kui miski tundus sulle selle katse juures imelik, pane see siia kirja</t>
+  </si>
+  <si>
+    <t>fatigue</t>
+  </si>
+  <si>
+    <t>engagement</t>
+  </si>
+  <si>
+    <t>Kui oluline oli sinu jaoks iga ploki parim tulemus?</t>
+  </si>
+  <si>
+    <t>weight_best</t>
+  </si>
+  <si>
+    <t>weight_worst</t>
+  </si>
+  <si>
+    <t>weight_mean</t>
+  </si>
+  <si>
+    <t>Kui oluline oli sinu jaoks iga ploki halvim tulemus?</t>
+  </si>
+  <si>
+    <t>Kui oluline oli sinu jaoks iga ploki tulemuste keskmine?</t>
   </si>
 </sst>
 </file>
@@ -124,8 +145,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,16 +430,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>
@@ -445,44 +469,46 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <f>A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f t="shared" ref="A4:A9" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -490,30 +516,86 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/self_report.xlsx
+++ b/self_report.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{C846567D-6288-46A3-88B8-5A959F8D15D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06935384-8478-4A4C-BA6C-1B9BED3EC3E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF34D451-7D3F-4C2B-A48D-3B0900557E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>väga oluline</t>
   </si>
   <si>
-    <t>Kui miski tundus sulle selle katse juures imelik, pane see siia kirja</t>
-  </si>
-  <si>
     <t>fatigue</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Kui oluline oli sinu jaoks iga ploki tulemuste keskmine?</t>
+  </si>
+  <si>
+    <t>Kui miski tundus sulle selle katse juures imelik, pane see palun siia kirja</t>
   </si>
 </sst>
 </file>
@@ -433,13 +433,13 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -538,10 +538,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -556,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -574,10 +574,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -595,7 +595,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/self_report.xlsx
+++ b/self_report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF34D451-7D3F-4C2B-A48D-3B0900557E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A028666-DB19-4843-B00C-DB61EC60B308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>odd</t>
   </si>
   <si>
-    <t>Millise tunde viimase ploki tulemus sinus tekitas?</t>
-  </si>
-  <si>
     <t>Kui oluline oli sinu jaoks saada selles katses häid tulemusi?</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Kui miski tundus sulle selle katse juures imelik, pane see palun siia kirja</t>
+  </si>
+  <si>
+    <t>Millise tunde viimane plokk sinus tekitas?</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,13 +469,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -538,16 +538,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -556,16 +556,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -574,16 +574,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
